--- a/result_exp/pt17单video single frame 的mAP.xlsx
+++ b/result_exp/pt17单video single frame 的mAP.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_\D\posetrack\nise_embedding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77529E88-3114-4FAC-A52A-26ACEBB20D05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24680" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="latest-gtbox" sheetId="5" r:id="rId1"/>
@@ -19,23 +13,36 @@
     <sheet name="工作表2" sheetId="3" r:id="rId4"/>
     <sheet name="工作表1" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+  <si>
+    <t xml:space="preserve"> Head </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shou </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wri  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total</t>
+  </si>
   <si>
     <t>000342_mpii_relpath_5sec_testsub</t>
   </si>
@@ -163,6 +170,9 @@
     <t>17839_mpii_relpath_5sec_testsub</t>
   </si>
   <si>
+    <t xml:space="preserve">  nan </t>
+  </si>
+  <si>
     <t>20880_mpii_relpath_5sec_testsub</t>
   </si>
   <si>
@@ -187,482 +197,370 @@
     <t>24621_mpii_relpath_5sec_testsub</t>
   </si>
   <si>
+    <t xml:space="preserve"> GT-Total</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>通过threshold 0.5抑制可以达到89.6，图像只有两个人，所以不应该是少了而是太多box的问题?</t>
+  </si>
+  <si>
+    <t>团操课，有掉了的情况——右边女人背后的男人。也有背后只伸出一只手检测不到人</t>
+  </si>
+  <si>
+    <t>一开始有10张图，标记只有两个，有很多远处的人没有标记，而detector检测出来并且算法进行了est</t>
+  </si>
+  <si>
+    <t>不知道为啥可以提高</t>
+  </si>
+  <si>
+    <t>有很多人在crowd里。有掉了的，68开始</t>
+  </si>
+  <si>
+    <t>也许可以？有人身体的一部分被箱子挡着了，检测只有上半身，但是anno有下半身。</t>
+  </si>
+  <si>
+    <t>通过threshold 0.5抑制可以达到61，13293是管弦乐队</t>
+  </si>
+  <si>
+    <t>一群人转转转，可能有？</t>
+  </si>
+  <si>
+    <t>两个人重合。</t>
+  </si>
+  <si>
+    <t>蹦极， 人挨得很近</t>
+  </si>
+  <si>
+    <t>20-87.92 using gt frame</t>
+  </si>
+  <si>
+    <t>共差33张，这里2640，json 显示2607，刚好。</t>
+  </si>
+  <si>
+    <t>20-87.92 using detector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nan </t>
+  </si>
+  <si>
+    <t>000342_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp; 57.5 &amp; 52.9 &amp; 30.9 &amp; 17.7 &amp; 80.7 &amp; 64.0 &amp; 44.7 &amp; 50.3 \\</t>
+  </si>
+  <si>
+    <t>001735_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp; 88.5 &amp; 86.7 &amp; 87.1 &amp; 80.5 &amp; 84.6 &amp; 56.4 &amp; 59.6 &amp; 78.3 \\</t>
+  </si>
+  <si>
+    <t>001744_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp;100.0 &amp;100.0 &amp; 99.6 &amp; 96.3 &amp; 69.1 &amp; 20.6 &amp;  0.0 &amp; 71.4 \\</t>
+  </si>
+  <si>
+    <t>002277_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp; 93.1 &amp; 84.7 &amp; 75.7 &amp; 38.1 &amp; 83.5 &amp; 78.4 &amp; 66.2 &amp; 75.5 \\</t>
+  </si>
+  <si>
+    <t>003943_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp; 73.8 &amp; 62.5 &amp; 38.4 &amp; 20.2 &amp; 64.4 &amp; 45.9 &amp; 28.2 &amp; 49.4 \\</t>
+  </si>
+  <si>
+    <t>005067_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp; 99.1 &amp; 87.1 &amp; 63.4 &amp; 42.7 &amp; 77.6 &amp; 53.1 &amp; 45.1 &amp; 69.0 \\</t>
+  </si>
+  <si>
+    <t>00522_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 88.1 &amp; 91.4 &amp; 79.8 &amp; 76.7 &amp; 90.4 &amp; 79.2 &amp; 80.7 &amp; 84.1 \\</t>
   </si>
   <si>
-    <t>&amp; 99.1 &amp; 87.1 &amp; 63.4 &amp; 42.7 &amp; 77.6 &amp; 53.1 &amp; 45.1 &amp; 69.0 \\</t>
-  </si>
-  <si>
-    <t>&amp; 73.8 &amp; 62.5 &amp; 38.4 &amp; 20.2 &amp; 64.4 &amp; 45.9 &amp; 28.2 &amp; 49.4 \\</t>
-  </si>
-  <si>
-    <t>&amp; 93.1 &amp; 84.7 &amp; 75.7 &amp; 38.1 &amp; 83.5 &amp; 78.4 &amp; 66.2 &amp; 75.5 \\</t>
-  </si>
-  <si>
-    <t>&amp;100.0 &amp;100.0 &amp; 99.6 &amp; 96.3 &amp; 69.1 &amp; 20.6 &amp;  0.0 &amp; 71.4 \\</t>
-  </si>
-  <si>
-    <t>&amp; 88.5 &amp; 86.7 &amp; 87.1 &amp; 80.5 &amp; 84.6 &amp; 56.4 &amp; 59.6 &amp; 78.3 \\</t>
-  </si>
-  <si>
-    <t>&amp; 57.5 &amp; 52.9 &amp; 30.9 &amp; 17.7 &amp; 80.7 &amp; 64.0 &amp; 44.7 &amp; 50.3 \\</t>
+    <t>007128_mpii_task_1</t>
   </si>
   <si>
     <t>&amp;100.0 &amp; 98.4 &amp; 95.8 &amp; 90.7 &amp; 98.0 &amp; 94.8 &amp; 96.9 &amp; 96.6 \\</t>
   </si>
   <si>
+    <t>007684_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 83.7 &amp; 83.8 &amp; 80.1 &amp; 78.0 &amp; 81.9 &amp; 73.5 &amp; 58.2 &amp; 77.5 \\</t>
   </si>
   <si>
+    <t>008760_mpii_task_1</t>
+  </si>
+  <si>
+    <t>&amp; 80.5 &amp; 83.1 &amp; 78.7 &amp; 64.5 &amp; 77.2 &amp; 75.1 &amp; 64.8 &amp; 75.2 \\</t>
+  </si>
+  <si>
+    <t>009883_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 78.6 &amp; 72.4 &amp; 54.4 &amp; 54.5 &amp; 66.4 &amp; 69.2 &amp; 63.6 &amp; 66.4 \\</t>
   </si>
   <si>
-    <t>&amp; 80.5 &amp; 83.1 &amp; 78.7 &amp; 64.5 &amp; 77.2 &amp; 75.1 &amp; 64.8 &amp; 75.2 \\</t>
+    <t>01001_mpii_task_1</t>
   </si>
   <si>
     <t>&amp; 97.9 &amp; 89.6 &amp; 67.2 &amp; 55.4 &amp; 91.2 &amp; 84.5 &amp; 89.2 &amp; 83.2 \\</t>
   </si>
   <si>
+    <t>013293_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp;100.0 &amp; 79.0 &amp; 88.1 &amp; 80.0 &amp;100.0 &amp; 99.5 &amp; 95.7 &amp; 92.3 \\</t>
   </si>
   <si>
+    <t>014384_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 91.0 &amp; 92.4 &amp; 78.1 &amp; 63.1 &amp; 87.2 &amp; 82.8 &amp; 81.5 &amp; 82.9 \\</t>
   </si>
   <si>
+    <t>014523_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 91.4 &amp; 89.6 &amp; 83.4 &amp; 70.7 &amp; 85.4 &amp; 72.5 &amp; 60.8 &amp; 79.9 \\</t>
   </si>
   <si>
+    <t>014531_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 85.8 &amp; 74.6 &amp; 78.3 &amp; 63.8 &amp; 75.5 &amp; 76.8 &amp; 70.3 &amp; 75.7 \\</t>
   </si>
   <si>
+    <t>01486_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 83.1 &amp; 88.8 &amp; 86.5 &amp; 75.4 &amp; 80.1 &amp; 85.3 &amp; 79.0 &amp; 82.6 \\</t>
   </si>
   <si>
+    <t>014960_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 95.5 &amp; 92.1 &amp; 92.3 &amp; 84.8 &amp; 91.0 &amp; 93.2 &amp; 90.4 &amp; 91.6 \\</t>
   </si>
   <si>
+    <t>015302_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 92.8 &amp; 92.3 &amp; 85.0 &amp; 68.2 &amp; 86.0 &amp; 78.1 &amp; 72.5 &amp; 82.9 \\</t>
   </si>
   <si>
+    <t>015860_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 87.3 &amp; 75.3 &amp; 75.8 &amp; 55.4 &amp; 58.0 &amp; 50.5 &amp; 51.4 &amp; 66.3 \\</t>
   </si>
   <si>
+    <t>016239_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 87.8 &amp; 86.7 &amp; 80.9 &amp; 65.9 &amp; 76.7 &amp; 72.4 &amp; 67.6 &amp; 77.6 \\</t>
   </si>
   <si>
+    <t>018725_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 86.8 &amp; 92.0 &amp; 87.0 &amp; 52.2 &amp; 86.9 &amp; 82.6 &amp; 79.3 &amp; 81.4 \\</t>
   </si>
   <si>
+    <t>020910_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 91.0 &amp; 90.3 &amp; 78.9 &amp; 64.5 &amp; 74.2 &amp; 75.7 &amp; 74.1 &amp; 79.2 \\</t>
   </si>
   <si>
+    <t>022688_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 45.9 &amp; 42.2 &amp; 15.1 &amp; 12.5 &amp; 41.4 &amp; 18.5 &amp; 13.3 &amp; 28.2 \\</t>
   </si>
   <si>
+    <t>02276_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 76.2 &amp; 80.2 &amp; 76.4 &amp; 69.3 &amp; 72.8 &amp; 82.1 &amp; 82.6 &amp; 77.0 \\</t>
   </si>
   <si>
+    <t>02364_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 58.0 &amp; 86.2 &amp; 79.5 &amp; 74.7 &amp; 43.3 &amp; 52.1 &amp; 43.5 &amp; 62.2 \\</t>
   </si>
   <si>
+    <t>023653_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 74.1 &amp; 69.0 &amp; 64.7 &amp; 59.4 &amp; 65.4 &amp; 60.3 &amp; 47.9 &amp; 63.7 \\</t>
   </si>
   <si>
+    <t>023754_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 86.0 &amp; 76.8 &amp; 69.8 &amp; 64.8 &amp; 65.2 &amp; 72.9 &amp; 45.7 &amp; 69.9 \\</t>
   </si>
   <si>
+    <t>024158_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 83.8 &amp; 65.3 &amp; 63.3 &amp; 54.8 &amp; 61.6 &amp; 48.4 &amp; 45.5 &amp; 62.0 \\</t>
   </si>
   <si>
+    <t>024165_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 90.9 &amp; 93.6 &amp; 79.3 &amp; 31.8 &amp; 87.8 &amp; 33.7 &amp; 53.3 &amp; 68.8 \\</t>
   </si>
   <si>
+    <t>024575_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 90.9 &amp; 94.2 &amp; 78.4 &amp; 60.0 &amp; 69.2 &amp; 76.4 &amp; 74.3 &amp; 78.5 \\</t>
   </si>
   <si>
+    <t>02835_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 67.3 &amp; 53.4 &amp; 43.2 &amp; 34.9 &amp; 31.2 &amp; 25.8 &amp; 16.0 &amp; 40.7 \\</t>
   </si>
   <si>
+    <t>03742_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 92.5 &amp; 92.4 &amp; 83.8 &amp; 75.9 &amp; 92.4 &amp; 94.1 &amp; 94.0 &amp; 89.5 \\</t>
   </si>
   <si>
+    <t>04622_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 84.4 &amp; 83.9 &amp; 77.5 &amp; 76.6 &amp; 69.8 &amp; 68.7 &amp; 67.9 &amp; 76.1 \\</t>
   </si>
   <si>
+    <t>05833_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 68.7 &amp; 70.0 &amp; 61.6 &amp; 54.9 &amp; 51.3 &amp; 45.7 &amp; 42.7 &amp; 57.2 \\</t>
   </si>
   <si>
+    <t>07496_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 93.6 &amp; 92.7 &amp; 90.2 &amp; 86.5 &amp; 88.7 &amp; 84.0 &amp; 79.8 &amp; 88.3 \\</t>
   </si>
   <si>
+    <t>08827_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 97.5 &amp; 95.6 &amp; 84.1 &amp; 51.8 &amp; 79.2 &amp; 90.4 &amp; 84.8 &amp; 84.3 \\</t>
   </si>
   <si>
+    <t>12834_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 92.7 &amp; 96.5 &amp; 87.2 &amp; 90.9 &amp; 47.1 &amp; 75.8 &amp; 54.8 &amp; 78.9 \\</t>
   </si>
   <si>
+    <t>13534_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 93.1 &amp; 86.2 &amp; 89.9 &amp; 82.8 &amp; 77.9 &amp; 90.0 &amp; 87.1 &amp; 87.1 \\</t>
   </si>
   <si>
+    <t>14102_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 77.2 &amp; 83.8 &amp; 81.1 &amp; 71.6 &amp; 75.5 &amp; 87.3 &amp; 86.3 &amp; 80.2 \\</t>
   </si>
   <si>
+    <t>14293_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 76.4 &amp; 70.6 &amp; 53.9 &amp; 49.4 &amp; 53.3 &amp; 68.4 &amp; 61.9 &amp; 62.9 \\</t>
   </si>
   <si>
+    <t>15301_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 91.8 &amp; 68.3 &amp;  nan &amp;  nan &amp; 54.6 &amp;  nan &amp;  nan &amp; 77.8 \\</t>
   </si>
   <si>
+    <t>16180_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 88.7 &amp; 72.5 &amp; 51.3 &amp; 49.6 &amp; 79.4 &amp; 65.6 &amp; 58.3 &amp; 68.0 \\</t>
   </si>
   <si>
+    <t>16236_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 77.4 &amp; 70.7 &amp; 68.6 &amp; 58.7 &amp; 73.3 &amp; 76.5 &amp; 74.8 &amp; 71.8 \\</t>
   </si>
   <si>
+    <t>16662_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 98.5 &amp; 94.0 &amp; 71.5 &amp; 66.3 &amp; 91.3 &amp; 40.8 &amp; 38.3 &amp; 73.3 \\</t>
   </si>
   <si>
+    <t>17839_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 75.4 &amp; 74.9 &amp; 68.2 &amp; 58.6 &amp; 67.4 &amp; 69.4 &amp; 64.3 &amp; 68.8 \\</t>
   </si>
   <si>
+    <t>20880_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 88.1 &amp; 83.7 &amp; 71.6 &amp; 78.0 &amp; 81.0 &amp; 69.9 &amp; 84.6 &amp; 80.1 \\</t>
   </si>
   <si>
+    <t>22430_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 83.9 &amp; 70.2 &amp; 64.3 &amp; 54.5 &amp; 64.6 &amp; 58.8 &amp; 48.0 &amp; 64.8 \\</t>
   </si>
   <si>
+    <t>23717_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 77.6 &amp; 63.2 &amp; 52.1 &amp; 46.7 &amp; 57.2 &amp; 48.0 &amp; 53.1 &amp; 58.2 \\</t>
   </si>
   <si>
+    <t>24621_mpii_task_1</t>
+  </si>
+  <si>
     <t>&amp; 93.4 &amp; 92.1 &amp; 64.5 &amp; 56.0 &amp; 59.1 &amp; 70.7 &amp;  nan &amp; 74.2 \\</t>
-  </si>
-  <si>
-    <t>共差33张，这里2640，json 显示2607，刚好。</t>
-    <rPh sb="0" eb="1">
-      <t>gong</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>cha</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhe'li</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>gang'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Head </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shou </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elb  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wri  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Knee </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ankl </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  nan </t>
-  </si>
-  <si>
-    <t>000342_mpii_task_1</t>
-  </si>
-  <si>
-    <t>001735_mpii_task_1</t>
-  </si>
-  <si>
-    <t>001744_mpii_task_1</t>
-  </si>
-  <si>
-    <t>002277_mpii_task_1</t>
-  </si>
-  <si>
-    <t>003943_mpii_task_1</t>
-  </si>
-  <si>
-    <t>005067_mpii_task_1</t>
-  </si>
-  <si>
-    <t>00522_mpii_task_1</t>
-  </si>
-  <si>
-    <t>007128_mpii_task_1</t>
-  </si>
-  <si>
-    <t>007684_mpii_task_1</t>
-  </si>
-  <si>
-    <t>008760_mpii_task_1</t>
-  </si>
-  <si>
-    <t>009883_mpii_task_1</t>
-  </si>
-  <si>
-    <t>013293_mpii_task_1</t>
-  </si>
-  <si>
-    <t>014384_mpii_task_1</t>
-  </si>
-  <si>
-    <t>014523_mpii_task_1</t>
-  </si>
-  <si>
-    <t>014531_mpii_task_1</t>
-  </si>
-  <si>
-    <t>01486_mpii_task_1</t>
-  </si>
-  <si>
-    <t>014960_mpii_task_1</t>
-  </si>
-  <si>
-    <t>015302_mpii_task_1</t>
-  </si>
-  <si>
-    <t>015860_mpii_task_1</t>
-  </si>
-  <si>
-    <t>016239_mpii_task_1</t>
-  </si>
-  <si>
-    <t>018725_mpii_task_1</t>
-  </si>
-  <si>
-    <t>020910_mpii_task_1</t>
-  </si>
-  <si>
-    <t>022688_mpii_task_1</t>
-  </si>
-  <si>
-    <t>02276_mpii_task_1</t>
-  </si>
-  <si>
-    <t>02364_mpii_task_1</t>
-  </si>
-  <si>
-    <t>023653_mpii_task_1</t>
-  </si>
-  <si>
-    <t>023754_mpii_task_1</t>
-  </si>
-  <si>
-    <t>024158_mpii_task_1</t>
-  </si>
-  <si>
-    <t>024165_mpii_task_1</t>
-  </si>
-  <si>
-    <t>024575_mpii_task_1</t>
-  </si>
-  <si>
-    <t>02835_mpii_task_1</t>
-  </si>
-  <si>
-    <t>03742_mpii_task_1</t>
-  </si>
-  <si>
-    <t>04622_mpii_task_1</t>
-  </si>
-  <si>
-    <t>05833_mpii_task_1</t>
-  </si>
-  <si>
-    <t>07496_mpii_task_1</t>
-  </si>
-  <si>
-    <t>08827_mpii_task_1</t>
-  </si>
-  <si>
-    <t>12834_mpii_task_1</t>
-  </si>
-  <si>
-    <t>13534_mpii_task_1</t>
-  </si>
-  <si>
-    <t>14102_mpii_task_1</t>
-  </si>
-  <si>
-    <t>14293_mpii_task_1</t>
-  </si>
-  <si>
-    <t>15301_mpii_task_1</t>
-  </si>
-  <si>
-    <t>16180_mpii_task_1</t>
-  </si>
-  <si>
-    <t>16236_mpii_task_1</t>
-  </si>
-  <si>
-    <t>16662_mpii_task_1</t>
-  </si>
-  <si>
-    <t>17839_mpii_task_1</t>
-  </si>
-  <si>
-    <t>20880_mpii_task_1</t>
-  </si>
-  <si>
-    <t>22430_mpii_task_1</t>
-  </si>
-  <si>
-    <t>23717_mpii_task_1</t>
-  </si>
-  <si>
-    <t>24621_mpii_task_1</t>
-  </si>
-  <si>
-    <t>01001_mpii_task_1</t>
-  </si>
-  <si>
-    <t>20-87.92 using gt frame</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-87.92 using detector</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> nan </t>
-  </si>
-  <si>
-    <t>16662_mpii_relpath_5sec_testsub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> GT-Total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过threshold 0.5抑制可以达到61，13293是管弦乐队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有很多人在crowd里。有掉了的，68开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>也许可以？有人身体的一部分被箱子挡着了，检测只有上半身，但是anno有下半身。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道为啥可以提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一群人转转转，可能有？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开始有10张图，标记只有两个，有很多远处的人没有标记，而detector检测出来并且算法进行了est</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个人重合。</t>
-    <rPh sb="0" eb="1">
-      <t>liang'ge'ren'chong'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹦极， 人挨得很近</t>
-    <rPh sb="0" eb="1">
-      <t>begn'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过threshold 0.5抑制可以达到89.6，图像只有两个人，所以不应该是少了而是太多box的问题?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>团操课，有掉了的情况——右边女人背后的男人。也有背后只伸出一只手检测不到人</t>
-    <rPh sb="0" eb="1">
-      <t>tuan'cao'ke</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>you'zu'dang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>diao'le'de'qing'k</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>you'bian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>nv'ren</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>bei'hou'de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>nan'r</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ye'you</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>bei'hou</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>zhi'shen'chu'yi'zhi'shou</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>jian'ce'bu'dao'ren</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -670,27 +568,152 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +722,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -712,47 +915,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="33" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="40% - 着色 2" xfId="3" builtinId="35"/>
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="标题" xfId="32" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="33" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="34" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="35" builtinId="40"/>
+    <cellStyle name="注释" xfId="36" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="38" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51"/>
+    <cellStyle name="千位分隔[0]" xfId="40" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="41" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="43" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="46" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -801,7 +1270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -834,26 +1303,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -886,23 +1338,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,58 +1479,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.4416666666667" defaultRowHeight="12.4"/>
   <cols>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:12">
       <c r="E1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>48</v>
@@ -1116,7 +1547,7 @@
         <v>19.3</v>
       </c>
       <c r="I2">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="J2">
         <v>47.6</v>
@@ -1128,9 +1559,9 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>52</v>
@@ -1163,9 +1594,9 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -1186,7 +1617,7 @@
         <v>96.8</v>
       </c>
       <c r="I4">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="J4">
         <v>26.5</v>
@@ -1198,9 +1629,9 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>54</v>
@@ -1215,7 +1646,7 @@
         <v>86.3</v>
       </c>
       <c r="G5">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="H5">
         <v>41.6</v>
@@ -1224,7 +1655,7 @@
         <v>83.6</v>
       </c>
       <c r="J5">
-        <v>78.400000000000006</v>
+        <v>78.4</v>
       </c>
       <c r="K5">
         <v>66</v>
@@ -1233,9 +1664,9 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -1244,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>73.400000000000006</v>
+        <v>73.4</v>
       </c>
       <c r="F6">
         <v>61</v>
@@ -1268,9 +1699,9 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1300,12 +1731,12 @@
         <v>47.9</v>
       </c>
       <c r="L7">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>70.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -1338,9 +1769,9 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -1373,9 +1804,9 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>52</v>
@@ -1396,7 +1827,7 @@
         <v>79</v>
       </c>
       <c r="I10">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="J10">
         <v>70.2</v>
@@ -1405,12 +1836,12 @@
         <v>60</v>
       </c>
       <c r="L10">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>77.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>45</v>
@@ -1425,27 +1856,27 @@
         <v>82.6</v>
       </c>
       <c r="G11">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="H11">
-        <v>65.099999999999994</v>
+        <v>65.1</v>
       </c>
       <c r="I11">
         <v>77.7</v>
       </c>
       <c r="J11">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
       <c r="K11">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="L11">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" s="3" customFormat="1" ht="13.2" spans="2:12">
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>50</v>
@@ -1472,15 +1903,15 @@
         <v>69</v>
       </c>
       <c r="K12" s="3">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="L12" s="3">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>68.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>60</v>
@@ -1495,7 +1926,7 @@
         <v>88.3</v>
       </c>
       <c r="G13">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="H13">
         <v>56.4</v>
@@ -1513,9 +1944,9 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>56</v>
@@ -1548,9 +1979,9 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>54</v>
@@ -1565,7 +1996,7 @@
         <v>91.9</v>
       </c>
       <c r="G15">
-        <v>77.099999999999994</v>
+        <v>77.1</v>
       </c>
       <c r="H15">
         <v>59.5</v>
@@ -1574,18 +2005,18 @@
         <v>87.6</v>
       </c>
       <c r="J15">
-        <v>80.400000000000006</v>
+        <v>80.4</v>
       </c>
       <c r="K15">
-        <v>79.900000000000006</v>
+        <v>79.9</v>
       </c>
       <c r="L15">
-        <v>81.599999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>81.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>48</v>
@@ -1615,12 +2046,12 @@
         <v>60.6</v>
       </c>
       <c r="L16">
-        <v>79.400000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>47</v>
@@ -1632,10 +2063,10 @@
         <v>86.6</v>
       </c>
       <c r="F17">
-        <v>75.599999999999994</v>
+        <v>75.6</v>
       </c>
       <c r="G17">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="H17">
         <v>64.7</v>
@@ -1644,7 +2075,7 @@
         <v>75.3</v>
       </c>
       <c r="J17">
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="K17">
         <v>71.5</v>
@@ -1653,9 +2084,9 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>47</v>
@@ -1673,7 +2104,7 @@
         <v>87.1</v>
       </c>
       <c r="H18">
-        <v>76.900000000000006</v>
+        <v>76.9</v>
       </c>
       <c r="I18">
         <v>80.5</v>
@@ -1688,9 +2119,9 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>61</v>
@@ -1723,10 +2154,10 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" s="3" customFormat="1" ht="13.2" spans="1:12">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>50</v>
@@ -1744,13 +2175,13 @@
         <v>84.2</v>
       </c>
       <c r="H20">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="I20">
         <v>84.9</v>
       </c>
       <c r="J20">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="K20">
         <v>71.3</v>
@@ -1759,9 +2190,9 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -1794,12 +2225,12 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>59</v>
@@ -1832,10 +2263,10 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.2" spans="1:12">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>46</v>
@@ -1868,9 +2299,9 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>54</v>
@@ -1894,7 +2325,7 @@
         <v>73</v>
       </c>
       <c r="J24">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="K24">
         <v>74.7</v>
@@ -1903,9 +2334,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>54</v>
@@ -1920,7 +2351,7 @@
         <v>43.4</v>
       </c>
       <c r="G25">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="H25">
         <v>12.8</v>
@@ -1938,9 +2369,9 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>54</v>
@@ -1949,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="F26">
         <v>80.5</v>
@@ -1958,13 +2389,13 @@
         <v>77.7</v>
       </c>
       <c r="H26">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="I26">
-        <v>66.099999999999994</v>
+        <v>66.1</v>
       </c>
       <c r="J26">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="K26">
         <v>83</v>
@@ -1973,9 +2404,9 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>54</v>
@@ -1990,7 +2421,7 @@
         <v>87.5</v>
       </c>
       <c r="G27">
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="H27">
         <v>75.8</v>
@@ -2008,9 +2439,9 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>46</v>
@@ -2019,19 +2450,19 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="F28">
-        <v>69.599999999999994</v>
+        <v>69.6</v>
       </c>
       <c r="G28">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="H28">
         <v>57.8</v>
       </c>
       <c r="I28">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="J28">
         <v>63.5</v>
@@ -2040,13 +2471,13 @@
         <v>50.2</v>
       </c>
       <c r="L28">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+        <v>64.6</v>
+      </c>
+    </row>
+    <row r="29" ht="13.2" spans="1:12">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <v>61</v>
@@ -2058,30 +2489,30 @@
         <v>83.7</v>
       </c>
       <c r="F29" s="3">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="G29" s="3">
         <v>70.7</v>
       </c>
       <c r="H29" s="3">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="I29" s="3">
         <v>68.8</v>
       </c>
       <c r="J29" s="3">
-        <v>73.400000000000006</v>
+        <v>73.4</v>
       </c>
       <c r="K29" s="3">
         <v>45</v>
       </c>
       <c r="L29" s="3">
-        <v>70.099999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>58</v>
@@ -2114,9 +2545,9 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>52</v>
@@ -2131,7 +2562,7 @@
         <v>94.1</v>
       </c>
       <c r="G31">
-        <v>79.099999999999994</v>
+        <v>79.1</v>
       </c>
       <c r="H31">
         <v>33</v>
@@ -2149,9 +2580,9 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>42</v>
@@ -2181,12 +2612,12 @@
         <v>74.7</v>
       </c>
       <c r="L32">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>56</v>
@@ -2219,9 +2650,9 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>47</v>
@@ -2254,9 +2685,9 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>46</v>
@@ -2283,15 +2714,15 @@
         <v>68.5</v>
       </c>
       <c r="K35">
-        <v>66.099999999999994</v>
+        <v>66.1</v>
       </c>
       <c r="L35">
         <v>76.2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>40</v>
@@ -2324,9 +2755,9 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>53</v>
@@ -2353,15 +2784,15 @@
         <v>85.1</v>
       </c>
       <c r="K37">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="L37">
         <v>88.3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>51</v>
@@ -2394,9 +2825,9 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>54</v>
@@ -2429,9 +2860,9 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>48</v>
@@ -2452,7 +2883,7 @@
         <v>84.1</v>
       </c>
       <c r="I40">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="J40">
         <v>89.6</v>
@@ -2464,9 +2895,9 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>46</v>
@@ -2484,7 +2915,7 @@
         <v>80.3</v>
       </c>
       <c r="H41">
-        <v>73.599999999999994</v>
+        <v>73.6</v>
       </c>
       <c r="I41">
         <v>78.3</v>
@@ -2496,13 +2927,13 @@
         <v>85.9</v>
       </c>
       <c r="L41">
-        <v>80.599999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>80.6</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="13.2" spans="1:12">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>61</v>
@@ -2535,12 +2966,12 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>59</v>
@@ -2555,30 +2986,30 @@
         <v>65.5</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="I43">
         <v>59.7</v>
       </c>
       <c r="J43" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="L43">
         <v>78.7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>61</v>
@@ -2590,7 +3021,7 @@
         <v>88.5</v>
       </c>
       <c r="F44">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="G44">
         <v>53.1</v>
@@ -2608,12 +3039,12 @@
         <v>52.9</v>
       </c>
       <c r="L44">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="13.2" spans="2:12">
       <c r="B45" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3">
         <v>50</v>
@@ -2622,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="3">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="F45" s="3">
         <v>72.2</v>
@@ -2634,21 +3065,21 @@
         <v>61.2</v>
       </c>
       <c r="I45" s="3">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="J45" s="3">
-        <v>78.099999999999994</v>
+        <v>78.1</v>
       </c>
       <c r="K45" s="3">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="L45" s="3">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73.6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>56</v>
@@ -2672,7 +3103,7 @@
         <v>90.2</v>
       </c>
       <c r="J46">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="K46">
         <v>46.4</v>
@@ -2681,9 +3112,9 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12">
       <c r="B47" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>54</v>
@@ -2695,7 +3126,7 @@
         <v>76.2</v>
       </c>
       <c r="F47">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="G47">
         <v>68</v>
@@ -2704,21 +3135,21 @@
         <v>56.6</v>
       </c>
       <c r="I47">
-        <v>67.099999999999994</v>
+        <v>67.1</v>
       </c>
       <c r="J47">
         <v>70</v>
       </c>
       <c r="K47">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="L47">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>51</v>
@@ -2733,10 +3164,10 @@
         <v>83.9</v>
       </c>
       <c r="G48">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="H48">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="I48">
         <v>82.4</v>
@@ -2748,15 +3179,15 @@
         <v>84.1</v>
       </c>
       <c r="L48">
-        <v>80.900000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -2786,12 +3217,12 @@
         <v>47.4</v>
       </c>
       <c r="L49">
-        <v>64.099999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64.1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>53</v>
@@ -2824,9 +3255,9 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>51</v>
@@ -2850,71 +3281,73 @@
         <v>63.4</v>
       </c>
       <c r="J51">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="K51" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="L51">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.4416666666667" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44166666666667" customWidth="1"/>
+    <col min="2" max="2" width="35.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:14">
       <c r="E1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="2:15">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -2950,14 +3383,14 @@
         <v>96.8</v>
       </c>
       <c r="N2">
-        <f>M2-L2</f>
-        <v>1.2999999999999972</v>
+        <f t="shared" ref="N2:N51" si="0">M2-L2</f>
+        <v>1.3</v>
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>61</v>
@@ -2993,13 +3426,13 @@
         <v>91.8</v>
       </c>
       <c r="N3">
-        <f>M3-L3</f>
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>47</v>
@@ -3017,7 +3450,7 @@
         <v>82.9</v>
       </c>
       <c r="H4">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="I4">
         <v>91.1</v>
@@ -3035,13 +3468,13 @@
         <v>89.3</v>
       </c>
       <c r="N4">
-        <f>M4-L4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>57</v>
@@ -3077,13 +3510,13 @@
         <v>83.2</v>
       </c>
       <c r="N5">
-        <f>M5-L5</f>
-        <v>-2.7999999999999972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>48</v>
@@ -3101,10 +3534,10 @@
         <v>85</v>
       </c>
       <c r="H6">
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="I6">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="J6">
         <v>86.3</v>
@@ -3119,14 +3552,14 @@
         <v>86.6</v>
       </c>
       <c r="N6">
-        <f>M6-L6</f>
-        <v>3.6999999999999886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="13.2" spans="1:15">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>53</v>
@@ -3162,14 +3595,14 @@
         <v>88.3</v>
       </c>
       <c r="N7">
-        <f>M7-L7</f>
-        <v>5.5999999999999943</v>
+        <f t="shared" si="0"/>
+        <v>5.59999999999999</v>
       </c>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>51</v>
@@ -3184,13 +3617,13 @@
         <v>92.5</v>
       </c>
       <c r="G8">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="H8">
         <v>49.3</v>
       </c>
       <c r="I8">
-        <v>79.599999999999994</v>
+        <v>79.6</v>
       </c>
       <c r="J8">
         <v>85.3</v>
@@ -3199,19 +3632,19 @@
         <v>83.5</v>
       </c>
       <c r="L8">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="M8">
         <v>84.1</v>
       </c>
       <c r="N8">
-        <f>M8-L8</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>52</v>
@@ -3229,7 +3662,7 @@
         <v>84.7</v>
       </c>
       <c r="H9">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="I9">
         <v>89.2</v>
@@ -3241,20 +3674,20 @@
         <v>56.8</v>
       </c>
       <c r="L9">
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="M9">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="N9">
-        <f>M9-L9</f>
-        <v>-3.1999999999999886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-3.19999999999999</v>
+      </c>
+    </row>
+    <row r="10" ht="13.2" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>46</v>
@@ -3281,22 +3714,22 @@
         <v>80.3</v>
       </c>
       <c r="K10" s="3">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="L10" s="3">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="M10" s="3">
         <v>82.4</v>
       </c>
       <c r="N10">
-        <f>M10-L10</f>
-        <v>2.3000000000000114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.30000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>51</v>
@@ -3311,7 +3744,7 @@
         <v>82.5</v>
       </c>
       <c r="G11">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="H11">
         <v>78.2</v>
@@ -3320,26 +3753,26 @@
         <v>80.3</v>
       </c>
       <c r="J11">
-        <v>68.900000000000006</v>
+        <v>68.9</v>
       </c>
       <c r="K11">
         <v>84.9</v>
       </c>
       <c r="L11">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="M11">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="N11">
-        <f>M11-L11</f>
-        <v>0.80000000000001137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.800000000000011</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="13.2" spans="1:15">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>56</v>
@@ -3369,22 +3802,22 @@
         <v>81</v>
       </c>
       <c r="L12">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="M12">
         <v>95.7</v>
       </c>
       <c r="N12">
-        <f>M12-L12</f>
-        <v>16.299999999999997</v>
+        <f t="shared" si="0"/>
+        <v>16.3</v>
       </c>
       <c r="O12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -3408,28 +3841,28 @@
         <v>84.1</v>
       </c>
       <c r="J13">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="K13">
         <v>63.4</v>
       </c>
       <c r="L13">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="M13">
         <v>82.6</v>
       </c>
       <c r="N13">
-        <f>M13-L13</f>
-        <v>3.1999999999999886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.19999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>59</v>
@@ -3447,10 +3880,10 @@
         <v>84.4</v>
       </c>
       <c r="H14">
-        <v>66.400000000000006</v>
+        <v>66.4</v>
       </c>
       <c r="I14">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="J14">
         <v>71.3</v>
@@ -3465,13 +3898,13 @@
         <v>77.7</v>
       </c>
       <c r="N14">
-        <f>M14-L14</f>
-        <v>-0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-0.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>47</v>
@@ -3483,7 +3916,7 @@
         <v>86.7</v>
       </c>
       <c r="F15">
-        <v>79.599999999999994</v>
+        <v>79.6</v>
       </c>
       <c r="G15">
         <v>82.8</v>
@@ -3492,7 +3925,7 @@
         <v>68.2</v>
       </c>
       <c r="I15">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="J15">
         <v>74.8</v>
@@ -3507,13 +3940,13 @@
         <v>76.3</v>
       </c>
       <c r="N15">
-        <f>M15-L15</f>
-        <v>-1.7000000000000028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>54</v>
@@ -3522,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="F16">
         <v>82.7</v>
@@ -3531,7 +3964,7 @@
         <v>78.7</v>
       </c>
       <c r="H16">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="I16">
         <v>79.3</v>
@@ -3540,22 +3973,22 @@
         <v>79.3</v>
       </c>
       <c r="K16">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="L16">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="M16">
         <v>76.8</v>
       </c>
       <c r="N16">
-        <f>M16-L16</f>
-        <v>-0.60000000000000853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-0.600000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>48</v>
@@ -3570,10 +4003,10 @@
         <v>90.4</v>
       </c>
       <c r="G17">
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="H17">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="I17">
         <v>84.9</v>
@@ -3588,16 +4021,16 @@
         <v>77.3</v>
       </c>
       <c r="M17">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="N17">
-        <f>M17-L17</f>
-        <v>2.1000000000000085</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.10000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>54</v>
@@ -3633,13 +4066,13 @@
         <v>80.7</v>
       </c>
       <c r="N18">
-        <f>M18-L18</f>
-        <v>3.4000000000000057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.40000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>54</v>
@@ -3654,10 +4087,10 @@
         <v>82.8</v>
       </c>
       <c r="G19">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="H19">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="I19">
         <v>78.3</v>
@@ -3675,14 +4108,14 @@
         <v>76.7</v>
       </c>
       <c r="N19">
-        <f>M19-L19</f>
-        <v>2.2000000000000028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="13.2" spans="1:14">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>42</v>
@@ -3703,10 +4136,10 @@
         <v>57.1</v>
       </c>
       <c r="I20">
-        <v>79.900000000000006</v>
+        <v>79.9</v>
       </c>
       <c r="J20">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="K20">
         <v>69.7</v>
@@ -3715,16 +4148,16 @@
         <v>74.3</v>
       </c>
       <c r="M20">
-        <v>79.900000000000006</v>
+        <v>79.9</v>
       </c>
       <c r="N20">
-        <f>M20-L20</f>
-        <v>5.6000000000000085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5.60000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>47</v>
@@ -3733,22 +4166,22 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>73.400000000000006</v>
+        <v>73.4</v>
       </c>
       <c r="F21">
         <v>80.2</v>
       </c>
       <c r="G21">
-        <v>77.900000000000006</v>
+        <v>77.9</v>
       </c>
       <c r="H21">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="I21">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="J21">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
       <c r="K21">
         <v>70.2</v>
@@ -3760,16 +4193,16 @@
         <v>83.4</v>
       </c>
       <c r="N21">
-        <f>M21-L21</f>
-        <v>9.4000000000000057</v>
+        <f t="shared" si="0"/>
+        <v>9.40000000000001</v>
       </c>
       <c r="O21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>46</v>
@@ -3784,7 +4217,7 @@
         <v>80.3</v>
       </c>
       <c r="G22">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="H22">
         <v>78.3</v>
@@ -3793,7 +4226,7 @@
         <v>73.2</v>
       </c>
       <c r="J22">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="K22">
         <v>60.9</v>
@@ -3805,13 +4238,13 @@
         <v>76.2</v>
       </c>
       <c r="N22">
-        <f>M22-L22</f>
-        <v>2.2000000000000028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>46</v>
@@ -3820,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>66.400000000000006</v>
+        <v>66.4</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -3829,7 +4262,7 @@
         <v>68.5</v>
       </c>
       <c r="H23">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="I23">
         <v>76.7</v>
@@ -3844,16 +4277,16 @@
         <v>73.3</v>
       </c>
       <c r="M23">
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="N23">
-        <f>M23-L23</f>
-        <v>7.2999999999999972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>54</v>
@@ -3868,13 +4301,13 @@
         <v>83.8</v>
       </c>
       <c r="G24">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="H24">
         <v>60.7</v>
       </c>
       <c r="I24">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="J24">
         <v>72.2</v>
@@ -3883,19 +4316,19 @@
         <v>66.3</v>
       </c>
       <c r="L24">
-        <v>73.099999999999994</v>
+        <v>73.1</v>
       </c>
       <c r="M24">
         <v>79</v>
       </c>
       <c r="N24">
-        <f>M24-L24</f>
-        <v>5.9000000000000057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5.90000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>45</v>
@@ -3916,7 +4349,7 @@
         <v>61.5</v>
       </c>
       <c r="I25">
-        <v>73.599999999999994</v>
+        <v>73.6</v>
       </c>
       <c r="J25">
         <v>69.8</v>
@@ -3931,13 +4364,13 @@
         <v>75</v>
       </c>
       <c r="N25">
-        <f>M25-L25</f>
-        <v>2.2999999999999972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>54</v>
@@ -3946,43 +4379,43 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="F26">
         <v>78.8</v>
       </c>
       <c r="G26">
-        <v>67.099999999999994</v>
+        <v>67.1</v>
       </c>
       <c r="H26">
         <v>55.9</v>
       </c>
       <c r="I26">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="J26">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="K26">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="L26">
         <v>72.7</v>
       </c>
       <c r="M26">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="N26">
-        <f>M26-L26</f>
-        <v>8.8999999999999915</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>8.89999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>59</v>
@@ -3991,25 +4424,25 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="F27">
         <v>53.4</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="I27">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="L27">
         <v>72.3</v>
@@ -4018,13 +4451,13 @@
         <v>78.7</v>
       </c>
       <c r="N27">
-        <f>M27-L27</f>
-        <v>6.4000000000000057</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6.40000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>52</v>
@@ -4060,13 +4493,13 @@
         <v>77.2</v>
       </c>
       <c r="N28">
-        <f>M28-L28</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>59</v>
@@ -4090,7 +4523,7 @@
         <v>71.7</v>
       </c>
       <c r="J29">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="K29">
         <v>0.1</v>
@@ -4102,13 +4535,13 @@
         <v>72.5</v>
       </c>
       <c r="N29">
-        <f>M29-L29</f>
-        <v>1.7000000000000028</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -4138,19 +4571,19 @@
         <v>48.7</v>
       </c>
       <c r="L30">
-        <v>70.099999999999994</v>
+        <v>70.1</v>
       </c>
       <c r="M30">
         <v>73.2</v>
       </c>
       <c r="N30">
-        <f>M30-L30</f>
-        <v>3.1000000000000085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.10000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>60</v>
@@ -4174,10 +4607,10 @@
         <v>79</v>
       </c>
       <c r="J31">
-        <v>68.900000000000006</v>
+        <v>68.9</v>
       </c>
       <c r="K31">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="L31">
         <v>69.2</v>
@@ -4186,17 +4619,17 @@
         <v>83.9</v>
       </c>
       <c r="N31">
-        <f>M31-L31</f>
-        <v>14.700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>14.7</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="13.2" spans="1:14">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>50</v>
@@ -4217,29 +4650,29 @@
         <v>60.3</v>
       </c>
       <c r="I32" s="3">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="J32" s="3">
         <v>77.3</v>
       </c>
       <c r="K32" s="3">
-        <v>72.900000000000006</v>
+        <v>72.9</v>
       </c>
       <c r="L32" s="3">
         <v>69.2</v>
       </c>
       <c r="M32" s="3">
-        <v>73.599999999999994</v>
+        <v>73.6</v>
       </c>
       <c r="N32">
-        <f>M32-L32</f>
-        <v>4.3999999999999915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4.39999999999999</v>
+      </c>
+    </row>
+    <row r="33" ht="13.2" spans="1:14">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3">
         <v>61</v>
@@ -4269,19 +4702,19 @@
         <v>47.3</v>
       </c>
       <c r="L33" s="3">
-        <v>68.599999999999994</v>
+        <v>68.6</v>
       </c>
       <c r="M33" s="3">
-        <v>70.099999999999994</v>
+        <v>70.1</v>
       </c>
       <c r="N33">
-        <f>M33-L33</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -4302,7 +4735,7 @@
         <v>38.9</v>
       </c>
       <c r="I34">
-        <v>72.599999999999994</v>
+        <v>72.6</v>
       </c>
       <c r="J34">
         <v>48.9</v>
@@ -4311,19 +4744,19 @@
         <v>42</v>
       </c>
       <c r="L34">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="M34">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="N34">
-        <f>M34-L34</f>
-        <v>4.8000000000000114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4.80000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>61</v>
@@ -4347,25 +4780,25 @@
         <v>61.7</v>
       </c>
       <c r="J35">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="K35">
         <v>52.4</v>
       </c>
       <c r="L35">
-        <v>65.099999999999994</v>
+        <v>65.1</v>
       </c>
       <c r="M35">
         <v>62.1</v>
       </c>
       <c r="N35">
-        <f>M35-L35</f>
-        <v>-2.9999999999999929</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-2.99999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>51</v>
@@ -4374,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="F36">
-        <v>75.900000000000006</v>
+        <v>75.9</v>
       </c>
       <c r="G36">
         <v>53.2</v>
@@ -4392,7 +4825,7 @@
         <v>64.3</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="L36">
         <v>64.2</v>
@@ -4401,16 +4834,16 @@
         <v>74</v>
       </c>
       <c r="N36">
-        <f>M36-L36</f>
-        <v>9.7999999999999972</v>
+        <f t="shared" si="0"/>
+        <v>9.8</v>
       </c>
       <c r="O36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>54</v>
@@ -4446,13 +4879,13 @@
         <v>69</v>
       </c>
       <c r="N37">
-        <f>M37-L37</f>
-        <v>5.2000000000000028</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="38" ht="13.2" spans="2:15">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>58</v>
@@ -4479,7 +4912,7 @@
         <v>47.2</v>
       </c>
       <c r="K38">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="L38">
         <v>63.2</v>
@@ -4488,14 +4921,14 @@
         <v>62.6</v>
       </c>
       <c r="N38">
-        <f>M38-L38</f>
-        <v>-0.60000000000000142</v>
+        <f t="shared" si="0"/>
+        <v>-0.600000000000001</v>
       </c>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14">
       <c r="B39" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>53</v>
@@ -4531,14 +4964,14 @@
         <v>67.3</v>
       </c>
       <c r="N39">
-        <f>M39-L39</f>
-        <v>4.2999999999999972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="40" ht="13.2" spans="1:14">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
         <v>50</v>
@@ -4550,7 +4983,7 @@
         <v>67.8</v>
       </c>
       <c r="F40" s="3">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="G40" s="3">
         <v>51.7</v>
@@ -4571,16 +5004,16 @@
         <v>61.8</v>
       </c>
       <c r="M40" s="3">
-        <v>68.400000000000006</v>
+        <v>68.4</v>
       </c>
       <c r="N40">
-        <f>M40-L40</f>
-        <v>6.6000000000000085</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6.60000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>46</v>
@@ -4613,19 +5046,19 @@
         <v>61.6</v>
       </c>
       <c r="M41">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="N41">
-        <f>M41-L41</f>
-        <v>2.9999999999999929</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.99999999999999</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="13.2" spans="1:15">
       <c r="A42">
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>60</v>
@@ -4658,20 +5091,20 @@
         <v>60.8</v>
       </c>
       <c r="M42">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="N42">
-        <f>M42-L42</f>
-        <v>3.2999999999999972</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" ht="13.2" spans="1:15">
       <c r="A43" s="3">
         <v>59</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3">
         <v>61</v>
@@ -4680,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="F43" s="3">
         <v>65</v>
@@ -4704,19 +5137,19 @@
         <v>56</v>
       </c>
       <c r="M43" s="3">
-        <v>67.099999999999994</v>
+        <v>67.1</v>
       </c>
       <c r="N43" s="3">
-        <f>M43-L43</f>
-        <v>11.099999999999994</v>
+        <f t="shared" si="0"/>
+        <v>11.1</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>54</v>
@@ -4728,16 +5161,16 @@
         <v>46.8</v>
       </c>
       <c r="F44">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="G44">
         <v>63.4</v>
       </c>
       <c r="H44">
-        <v>73.599999999999994</v>
+        <v>73.6</v>
       </c>
       <c r="I44">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="J44">
         <v>50.1</v>
@@ -4752,17 +5185,17 @@
         <v>63.3</v>
       </c>
       <c r="N44">
-        <f>M44-L44</f>
-        <v>10.899999999999999</v>
+        <f t="shared" si="0"/>
+        <v>10.9</v>
       </c>
       <c r="O44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="13.2" spans="1:15">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>40</v>
@@ -4798,14 +5231,14 @@
         <v>57.8</v>
       </c>
       <c r="N45">
-        <f>M45-L45</f>
-        <v>5.8999999999999986</v>
+        <f t="shared" si="0"/>
+        <v>5.9</v>
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>52</v>
@@ -4814,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>69.099999999999994</v>
+        <v>69.1</v>
       </c>
       <c r="F46">
         <v>72.3</v>
@@ -4841,16 +5274,16 @@
         <v>69.3</v>
       </c>
       <c r="N46">
-        <f>M46-L46</f>
-        <v>18.399999999999999</v>
+        <f t="shared" si="0"/>
+        <v>18.4</v>
       </c>
       <c r="O46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" ht="13.2" spans="2:15">
       <c r="B47" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>53</v>
@@ -4868,7 +5301,7 @@
         <v>46.7</v>
       </c>
       <c r="H47">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="I47">
         <v>45.7</v>
@@ -4886,16 +5319,16 @@
         <v>59.5</v>
       </c>
       <c r="N47">
-        <f>M47-L47</f>
-        <v>8.7999999999999972</v>
+        <f t="shared" si="0"/>
+        <v>8.8</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -4913,31 +5346,31 @@
         <v>31.8</v>
       </c>
       <c r="H48">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="I48">
         <v>54.7</v>
       </c>
       <c r="J48">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="K48">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="L48">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="M48">
         <v>48.2</v>
       </c>
       <c r="N48">
-        <f>M48-L48</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4952,7 +5385,7 @@
         <v>37.4</v>
       </c>
       <c r="G49">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="H49">
         <v>12.9</v>
@@ -4973,16 +5406,16 @@
         <v>45.2</v>
       </c>
       <c r="N49">
-        <f>M49-L49</f>
-        <v>20.300000000000004</v>
+        <f t="shared" si="0"/>
+        <v>20.3</v>
       </c>
       <c r="O49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>54</v>
@@ -4997,7 +5430,7 @@
         <v>32</v>
       </c>
       <c r="G50">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="H50">
         <v>11.1</v>
@@ -5006,7 +5439,7 @@
         <v>26.6</v>
       </c>
       <c r="J50">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="K50">
         <v>18.7</v>
@@ -5018,13 +5451,13 @@
         <v>29.6</v>
       </c>
       <c r="N50">
-        <f>M50-L50</f>
-        <v>5.7000000000000028</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>56</v>
@@ -5042,7 +5475,7 @@
         <v>25.3</v>
       </c>
       <c r="H51">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I51">
         <v>14.9</v>
@@ -5060,70 +5493,71 @@
         <v>40.5</v>
       </c>
       <c r="N51">
-        <f>M51-L51</f>
+        <f t="shared" si="0"/>
         <v>18.7</v>
       </c>
       <c r="O51" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:O51">
-    <sortCondition descending="1" ref="L2:L51"/>
+    <sortCondition ref="L2:L51" descending="1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A7:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B36" sqref="A9:L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="12.4"/>
   <cols>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12">
       <c r="E9" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>54</v>
@@ -5156,9 +5590,9 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>56</v>
@@ -5188,12 +5622,12 @@
         <v>16</v>
       </c>
       <c r="L11">
-        <v>40.700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>40.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -5214,7 +5648,7 @@
         <v>20.2</v>
       </c>
       <c r="I12">
-        <v>64.400000000000006</v>
+        <v>64.4</v>
       </c>
       <c r="J12">
         <v>45.9</v>
@@ -5226,9 +5660,9 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -5261,9 +5695,9 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -5296,9 +5730,9 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>53</v>
@@ -5307,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="F15">
         <v>63.2</v>
@@ -5331,9 +5765,9 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>58</v>
@@ -5366,9 +5800,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>54</v>
@@ -5401,9 +5835,9 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>61</v>
@@ -5412,10 +5846,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>76.400000000000006</v>
+        <v>76.4</v>
       </c>
       <c r="F18">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="G18">
         <v>53.9</v>
@@ -5427,7 +5861,7 @@
         <v>53.3</v>
       </c>
       <c r="J18">
-        <v>68.400000000000006</v>
+        <v>68.4</v>
       </c>
       <c r="K18">
         <v>61.9</v>
@@ -5436,9 +5870,9 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>46</v>
@@ -5447,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="F19">
         <v>69</v>
@@ -5459,7 +5893,7 @@
         <v>59.4</v>
       </c>
       <c r="I19">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="J19">
         <v>60.3</v>
@@ -5471,12 +5905,12 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -5497,7 +5931,7 @@
         <v>54.5</v>
       </c>
       <c r="I20">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="J20">
         <v>58.8</v>
@@ -5509,9 +5943,9 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -5544,9 +5978,9 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -5555,10 +5989,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="F22">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="G22">
         <v>54.4</v>
@@ -5567,7 +6001,7 @@
         <v>54.5</v>
       </c>
       <c r="I22">
-        <v>66.400000000000006</v>
+        <v>66.4</v>
       </c>
       <c r="J22">
         <v>69.2</v>
@@ -5576,15 +6010,15 @@
         <v>63.6</v>
       </c>
       <c r="L22">
-        <v>66.400000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>61</v>
@@ -5605,10 +6039,10 @@
         <v>49.6</v>
       </c>
       <c r="I23">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="J23">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="K23">
         <v>58.3</v>
@@ -5617,9 +6051,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>52</v>
@@ -5643,7 +6077,7 @@
         <v>87.8</v>
       </c>
       <c r="J24">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="K24">
         <v>53.3</v>
@@ -5652,9 +6086,9 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>54</v>
@@ -5663,10 +6097,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="F25">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
       <c r="G25">
         <v>68.2</v>
@@ -5675,10 +6109,10 @@
         <v>58.6</v>
       </c>
       <c r="I25">
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="J25">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="K25">
         <v>64.3</v>
@@ -5687,9 +6121,9 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -5710,7 +6144,7 @@
         <v>42.7</v>
       </c>
       <c r="I26">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="J26">
         <v>53.1</v>
@@ -5722,9 +6156,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>61</v>
@@ -5748,18 +6182,18 @@
         <v>65.2</v>
       </c>
       <c r="J27">
-        <v>72.900000000000006</v>
+        <v>72.9</v>
       </c>
       <c r="K27">
         <v>45.7</v>
       </c>
       <c r="L27">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>59</v>
@@ -5780,7 +6214,7 @@
         <v>96.3</v>
       </c>
       <c r="I28">
-        <v>69.099999999999994</v>
+        <v>69.1</v>
       </c>
       <c r="J28">
         <v>20.6</v>
@@ -5789,12 +6223,12 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -5803,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="F29">
         <v>70.7</v>
       </c>
       <c r="G29">
-        <v>68.599999999999994</v>
+        <v>68.6</v>
       </c>
       <c r="H29">
         <v>58.7</v>
@@ -5827,9 +6261,9 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -5853,18 +6287,18 @@
         <v>91.3</v>
       </c>
       <c r="J30">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="K30">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="L30">
         <v>73.3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <v>51</v>
@@ -5891,15 +6325,15 @@
         <v>70.7</v>
       </c>
       <c r="K31" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="L31">
         <v>74.2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>45</v>
@@ -5923,7 +6357,7 @@
         <v>77.2</v>
       </c>
       <c r="J32">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="K32">
         <v>64.8</v>
@@ -5932,9 +6366,9 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>54</v>
@@ -5958,7 +6392,7 @@
         <v>83.5</v>
       </c>
       <c r="J33">
-        <v>78.400000000000006</v>
+        <v>78.4</v>
       </c>
       <c r="K33">
         <v>66.2</v>
@@ -5967,9 +6401,9 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>47</v>
@@ -5981,7 +6415,7 @@
         <v>85.8</v>
       </c>
       <c r="F34">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="G34">
         <v>78.3</v>
@@ -6002,9 +6436,9 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>46</v>
@@ -6022,7 +6456,7 @@
         <v>77.5</v>
       </c>
       <c r="H35">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="I35">
         <v>69.8</v>
@@ -6031,15 +6465,15 @@
         <v>68.7</v>
       </c>
       <c r="K35">
-        <v>67.900000000000006</v>
+        <v>67.9</v>
       </c>
       <c r="L35">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>54</v>
@@ -6054,7 +6488,7 @@
         <v>80.2</v>
       </c>
       <c r="G36">
-        <v>76.400000000000006</v>
+        <v>76.4</v>
       </c>
       <c r="H36">
         <v>69.3</v>
@@ -6072,9 +6506,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>52</v>
@@ -6089,13 +6523,13 @@
         <v>83.8</v>
       </c>
       <c r="G37">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="H37">
         <v>78</v>
       </c>
       <c r="I37">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="J37">
         <v>73.5</v>
@@ -6107,12 +6541,12 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>59</v>
@@ -6127,30 +6561,30 @@
         <v>86.7</v>
       </c>
       <c r="G38">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="H38">
-        <v>65.900000000000006</v>
+        <v>65.9</v>
       </c>
       <c r="I38">
         <v>76.7</v>
       </c>
       <c r="J38">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="K38">
-        <v>67.599999999999994</v>
+        <v>67.6</v>
       </c>
       <c r="L38">
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>59</v>
@@ -6165,27 +6599,27 @@
         <v>68.3</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="I39">
         <v>54.6</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="L39">
         <v>77.8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>52</v>
@@ -6218,9 +6652,9 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>42</v>
@@ -6235,7 +6669,7 @@
         <v>94.2</v>
       </c>
       <c r="G41">
-        <v>78.400000000000006</v>
+        <v>78.4</v>
       </c>
       <c r="H41">
         <v>60</v>
@@ -6244,7 +6678,7 @@
         <v>69.2</v>
       </c>
       <c r="J41">
-        <v>76.400000000000006</v>
+        <v>76.4</v>
       </c>
       <c r="K41">
         <v>74.3</v>
@@ -6253,9 +6687,9 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>54</v>
@@ -6285,12 +6719,12 @@
         <v>54.8</v>
       </c>
       <c r="L42">
-        <v>78.900000000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>54</v>
@@ -6305,7 +6739,7 @@
         <v>90.3</v>
       </c>
       <c r="G43">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="H43">
         <v>64.5</v>
@@ -6317,15 +6751,15 @@
         <v>75.7</v>
       </c>
       <c r="K43">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="L43">
         <v>79.2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>48</v>
@@ -6355,12 +6789,12 @@
         <v>60.8</v>
       </c>
       <c r="L44">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
       <c r="B45" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>51</v>
@@ -6375,7 +6809,7 @@
         <v>83.7</v>
       </c>
       <c r="G45">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="H45">
         <v>78</v>
@@ -6384,18 +6818,18 @@
         <v>81</v>
       </c>
       <c r="J45">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="K45">
         <v>84.6</v>
       </c>
       <c r="L45">
-        <v>80.099999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>46</v>
@@ -6410,10 +6844,10 @@
         <v>83.8</v>
       </c>
       <c r="G46">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="H46">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="I46">
         <v>75.5</v>
@@ -6428,9 +6862,9 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12">
       <c r="B47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -6460,12 +6894,12 @@
         <v>79.3</v>
       </c>
       <c r="L47">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -6483,10 +6917,10 @@
         <v>86.5</v>
       </c>
       <c r="H48">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="I48">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="J48">
         <v>85.3</v>
@@ -6498,9 +6932,9 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>54</v>
@@ -6515,7 +6949,7 @@
         <v>92.4</v>
       </c>
       <c r="G49">
-        <v>78.099999999999994</v>
+        <v>78.1</v>
       </c>
       <c r="H49">
         <v>63.1</v>
@@ -6533,9 +6967,9 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -6559,7 +6993,7 @@
         <v>86</v>
       </c>
       <c r="J50">
-        <v>78.099999999999994</v>
+        <v>78.1</v>
       </c>
       <c r="K50">
         <v>72.5</v>
@@ -6568,9 +7002,9 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>60</v>
@@ -6603,9 +7037,9 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>57</v>
@@ -6638,9 +7072,9 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -6673,9 +7107,9 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C54">
         <v>48</v>
@@ -6696,7 +7130,7 @@
         <v>82.8</v>
       </c>
       <c r="I54">
-        <v>77.900000000000006</v>
+        <v>77.9</v>
       </c>
       <c r="J54">
         <v>90</v>
@@ -6708,9 +7142,9 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -6743,9 +7177,9 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C56">
         <v>47</v>
@@ -6763,7 +7197,7 @@
         <v>83.8</v>
       </c>
       <c r="H56">
-        <v>75.900000000000006</v>
+        <v>75.9</v>
       </c>
       <c r="I56">
         <v>92.4</v>
@@ -6778,9 +7212,9 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>61</v>
@@ -6813,9 +7247,9 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>56</v>
@@ -6848,9 +7282,9 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="B59" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -6883,68 +7317,69 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A10:L59">
     <sortCondition ref="L10:L59"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A7:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="12.4"/>
   <cols>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12">
       <c r="E9" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>56</v>
@@ -6953,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="F10">
         <v>25.4</v>
@@ -6974,12 +7409,12 @@
         <v>11.8</v>
       </c>
       <c r="L10">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>54</v>
@@ -7012,9 +7447,9 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>48</v>
@@ -7029,7 +7464,7 @@
         <v>44</v>
       </c>
       <c r="G12">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="H12">
         <v>11.7</v>
@@ -7047,9 +7482,9 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>52</v>
@@ -7082,9 +7517,9 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -7114,12 +7549,12 @@
         <v>14.8</v>
       </c>
       <c r="L14">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -7140,7 +7575,7 @@
         <v>37.6</v>
       </c>
       <c r="I15">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="J15">
         <v>37.5</v>
@@ -7152,9 +7587,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>53</v>
@@ -7178,7 +7613,7 @@
         <v>44.2</v>
       </c>
       <c r="J16">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="K16">
         <v>41.5</v>
@@ -7187,9 +7622,9 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>54</v>
@@ -7198,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F17">
         <v>53.4</v>
@@ -7222,12 +7657,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>61</v>
@@ -7254,15 +7689,15 @@
         <v>42.3</v>
       </c>
       <c r="K18">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="L18">
         <v>47.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -7286,7 +7721,7 @@
         <v>50.5</v>
       </c>
       <c r="J19">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="K19">
         <v>33.1</v>
@@ -7295,9 +7730,9 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>53</v>
@@ -7315,7 +7750,7 @@
         <v>53.3</v>
       </c>
       <c r="H20">
-        <v>38.700000000000003</v>
+        <v>38.7</v>
       </c>
       <c r="I20">
         <v>49.7</v>
@@ -7330,9 +7765,9 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -7365,9 +7800,9 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -7400,12 +7835,12 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>60</v>
@@ -7432,15 +7867,15 @@
         <v>52.8</v>
       </c>
       <c r="K23">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="L23">
         <v>54.2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>51</v>
@@ -7449,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="F24">
         <v>64.8</v>
@@ -7458,7 +7893,7 @@
         <v>46.5</v>
       </c>
       <c r="H24">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="I24">
         <v>50.5</v>
@@ -7467,15 +7902,15 @@
         <v>56.3</v>
       </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="L24">
         <v>54.7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -7508,12 +7943,12 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>59</v>
@@ -7528,27 +7963,27 @@
         <v>40.4</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="I26">
         <v>67.8</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="L26">
         <v>55.9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>61</v>
@@ -7560,7 +7995,7 @@
         <v>60.1</v>
       </c>
       <c r="F27">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="G27">
         <v>53</v>
@@ -7572,7 +8007,7 @@
         <v>55.4</v>
       </c>
       <c r="J27">
-        <v>66.400000000000006</v>
+        <v>66.4</v>
       </c>
       <c r="K27">
         <v>37.9</v>
@@ -7581,9 +8016,9 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>58</v>
@@ -7595,7 +8030,7 @@
         <v>82</v>
       </c>
       <c r="F28">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="G28">
         <v>64.3</v>
@@ -7616,9 +8051,9 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>45</v>
@@ -7627,10 +8062,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="F29">
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="G29">
         <v>67.2</v>
@@ -7651,9 +8086,9 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>59</v>
@@ -7674,7 +8109,7 @@
         <v>84.3</v>
       </c>
       <c r="I30">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="J30">
         <v>8.5</v>
@@ -7686,9 +8121,9 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>54</v>
@@ -7700,7 +8135,7 @@
         <v>62.3</v>
       </c>
       <c r="F31">
-        <v>64.400000000000006</v>
+        <v>64.4</v>
       </c>
       <c r="G31">
         <v>58.9</v>
@@ -7721,9 +8156,9 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>54</v>
@@ -7756,9 +8191,9 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>54</v>
@@ -7791,9 +8226,9 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -7826,9 +8261,9 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>47</v>
@@ -7852,18 +8287,18 @@
         <v>63.5</v>
       </c>
       <c r="J35">
-        <v>65.900000000000006</v>
+        <v>65.9</v>
       </c>
       <c r="K35">
         <v>59.9</v>
       </c>
       <c r="L35">
-        <v>64.099999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>46</v>
@@ -7872,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="F36">
         <v>70.5</v>
@@ -7881,7 +8316,7 @@
         <v>64.8</v>
       </c>
       <c r="H36">
-        <v>67.099999999999994</v>
+        <v>67.1</v>
       </c>
       <c r="I36">
         <v>62.8</v>
@@ -7893,12 +8328,12 @@
         <v>54.3</v>
       </c>
       <c r="L36">
-        <v>64.900000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>56</v>
@@ -7919,7 +8354,7 @@
         <v>56.1</v>
       </c>
       <c r="I37">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="J37">
         <v>36.4</v>
@@ -7931,9 +8366,9 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12">
       <c r="B38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>61</v>
@@ -7942,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
       <c r="F38">
         <v>75</v>
@@ -7966,9 +8401,9 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>46</v>
@@ -7989,7 +8424,7 @@
         <v>58.8</v>
       </c>
       <c r="I39">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="J39">
         <v>81.7</v>
@@ -8001,9 +8436,9 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>52</v>
@@ -8018,7 +8453,7 @@
         <v>80.8</v>
       </c>
       <c r="G40">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="H40">
         <v>70.5</v>
@@ -8036,9 +8471,9 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>42</v>
@@ -8047,19 +8482,19 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>72.599999999999994</v>
+        <v>72.6</v>
       </c>
       <c r="F41">
         <v>81.3</v>
       </c>
       <c r="G41">
-        <v>64.400000000000006</v>
+        <v>64.4</v>
       </c>
       <c r="H41">
         <v>47.7</v>
       </c>
       <c r="I41">
-        <v>68.900000000000006</v>
+        <v>68.9</v>
       </c>
       <c r="J41">
         <v>68</v>
@@ -8068,12 +8503,12 @@
         <v>70.3</v>
       </c>
       <c r="L41">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>54</v>
@@ -8085,7 +8520,7 @@
         <v>71</v>
       </c>
       <c r="F42">
-        <v>76.400000000000006</v>
+        <v>76.4</v>
       </c>
       <c r="G42">
         <v>63.8</v>
@@ -8094,7 +8529,7 @@
         <v>52</v>
       </c>
       <c r="I42">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="J42">
         <v>70.7</v>
@@ -8106,9 +8541,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>48</v>
@@ -8123,13 +8558,13 @@
         <v>80.5</v>
       </c>
       <c r="G43">
-        <v>75.599999999999994</v>
+        <v>75.6</v>
       </c>
       <c r="H43">
         <v>62.9</v>
       </c>
       <c r="I43">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="J43">
         <v>61.7</v>
@@ -8141,9 +8576,9 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12">
       <c r="B44" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>54</v>
@@ -8161,10 +8596,10 @@
         <v>73</v>
       </c>
       <c r="H44">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="I44">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="J44">
         <v>72.8</v>
@@ -8176,12 +8611,12 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>59</v>
@@ -8214,9 +8649,9 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12">
       <c r="B46" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>46</v>
@@ -8231,13 +8666,13 @@
         <v>84.9</v>
       </c>
       <c r="G46">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="H46">
         <v>41.7</v>
       </c>
       <c r="I46">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="J46">
         <v>74.2</v>
@@ -8249,9 +8684,9 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>54</v>
@@ -8260,13 +8695,13 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="F47">
         <v>76</v>
       </c>
       <c r="G47">
-        <v>68.599999999999994</v>
+        <v>68.6</v>
       </c>
       <c r="H47">
         <v>60.9</v>
@@ -8278,15 +8713,15 @@
         <v>78.8</v>
       </c>
       <c r="K47">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="L47">
         <v>72.7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -8301,7 +8736,7 @@
         <v>85</v>
       </c>
       <c r="G48">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="H48">
         <v>59.2</v>
@@ -8310,7 +8745,7 @@
         <v>78.8</v>
       </c>
       <c r="J48">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="K48">
         <v>55.2</v>
@@ -8319,9 +8754,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C49">
         <v>56</v>
@@ -8330,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="F49">
         <v>66.7</v>
@@ -8354,9 +8789,9 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>47</v>
@@ -8377,7 +8812,7 @@
         <v>62.5</v>
       </c>
       <c r="I50">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="J50">
         <v>71.5</v>
@@ -8389,9 +8824,9 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C51">
         <v>51</v>
@@ -8412,21 +8847,21 @@
         <v>41.8</v>
       </c>
       <c r="I51">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="J51">
         <v>79.5</v>
       </c>
       <c r="K51">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="L51">
         <v>73.8</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>52</v>
@@ -8441,13 +8876,13 @@
         <v>82.3</v>
       </c>
       <c r="G52">
-        <v>78.900000000000006</v>
+        <v>78.9</v>
       </c>
       <c r="H52">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="I52">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="J52">
         <v>76</v>
@@ -8459,9 +8894,9 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -8470,10 +8905,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>81.400000000000006</v>
+        <v>81.4</v>
       </c>
       <c r="F53">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="G53">
         <v>70.2</v>
@@ -8482,7 +8917,7 @@
         <v>76.5</v>
       </c>
       <c r="I53">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="J53">
         <v>66</v>
@@ -8494,9 +8929,9 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C54">
         <v>48</v>
@@ -8508,7 +8943,7 @@
         <v>74.2</v>
       </c>
       <c r="F54">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="G54">
         <v>80.8</v>
@@ -8523,15 +8958,15 @@
         <v>82.7</v>
       </c>
       <c r="K54">
-        <v>76.900000000000006</v>
+        <v>76.9</v>
       </c>
       <c r="L54">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -8564,9 +8999,9 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>57</v>
@@ -8584,7 +9019,7 @@
         <v>80.7</v>
       </c>
       <c r="H56">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="I56">
         <v>89.7</v>
@@ -8599,9 +9034,9 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C57">
         <v>47</v>
@@ -8634,9 +9069,9 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>61</v>
@@ -8654,7 +9089,7 @@
         <v>87.4</v>
       </c>
       <c r="H58">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="I58">
         <v>88.3</v>
@@ -8669,9 +9104,9 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="B59" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -8704,45 +9139,46 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A10:L59">
     <sortCondition ref="L10:L59"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A10:H61"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="2"/>
-    <col min="5" max="5" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.775" style="1"/>
+    <col min="5" max="5" width="36.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" ht="18.4" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>48</v>
@@ -8750,19 +9186,19 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="H10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" ht="18.4" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1">
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>52</v>
@@ -8770,19 +9206,19 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="H11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" ht="18.4" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>59</v>
@@ -8790,19 +9226,19 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="H12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" ht="18.4" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>54</v>
@@ -8810,19 +9246,19 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" ht="18.4" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>60</v>
@@ -8830,19 +9266,19 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="H14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" ht="18.4" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1">
         <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>60</v>
@@ -8850,19 +9286,19 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" ht="18.4" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1">
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>57</v>
@@ -8870,19 +9306,19 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="18.4" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -8890,19 +9326,19 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="H17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" ht="18.4" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>52</v>
@@ -8910,19 +9346,19 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="H18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="18.4" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1">
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>45</v>
@@ -8930,19 +9366,19 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" ht="18.4" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -8950,19 +9386,19 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="H20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" ht="18.4" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -8970,19 +9406,19 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="H21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" ht="18.4" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1">
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>56</v>
@@ -8990,19 +9426,19 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" ht="18.4" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1">
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>54</v>
@@ -9010,19 +9446,19 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" ht="18.4" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1">
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>48</v>
@@ -9030,19 +9466,19 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="H24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" ht="18.4" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>47</v>
@@ -9050,19 +9486,19 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="H25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" ht="18.4" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1">
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>47</v>
@@ -9070,19 +9506,19 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="H26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" ht="18.4" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1">
         <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>61</v>
@@ -9090,19 +9526,19 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="H27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" ht="18.4" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1">
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -9110,19 +9546,19 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="H28" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" ht="18.4" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F29">
         <v>53</v>
@@ -9130,22 +9566,22 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="H29" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" ht="18.4" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1">
         <v>46</v>
       </c>
       <c r="D30">
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>59</v>
@@ -9153,19 +9589,19 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="H30" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" ht="18.4" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1">
         <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>46</v>
@@ -9173,19 +9609,19 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="H31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" ht="18.4" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1">
         <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>54</v>
@@ -9193,19 +9629,19 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="H32" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" ht="18.4" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1">
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>54</v>
@@ -9213,19 +9649,19 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="H33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" ht="18.4" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1">
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>54</v>
@@ -9233,19 +9669,19 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="H34" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" ht="18.4" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="1">
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>54</v>
@@ -9253,19 +9689,19 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="H35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" ht="18.4" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1">
         <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>46</v>
@@ -9273,19 +9709,19 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="H36" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" ht="18.4" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="1">
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>61</v>
@@ -9293,19 +9729,19 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="H37" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" ht="18.4" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="1">
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F38">
         <v>58</v>
@@ -9313,19 +9749,19 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="H38" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" ht="18.4" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="1">
         <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>52</v>
@@ -9333,19 +9769,19 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="H39" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" ht="18.4" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="1">
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F40">
         <v>42</v>
@@ -9353,19 +9789,19 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="H40" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" ht="18.4" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="1">
         <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>56</v>
@@ -9373,19 +9809,19 @@
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="H41" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" ht="18.4" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="1">
         <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>47</v>
@@ -9393,19 +9829,19 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="H42" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" ht="18.4" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="1">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F43">
         <v>46</v>
@@ -9413,19 +9849,19 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="H43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" ht="18.4" spans="1:8">
+      <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>40</v>
@@ -9433,19 +9869,19 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="2">
+    </row>
+    <row r="45" ht="18.4" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="1">
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F45">
         <v>53</v>
@@ -9453,19 +9889,19 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="H45" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" ht="18.4" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1">
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>51</v>
@@ -9473,19 +9909,19 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="H46" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" ht="18.4" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1">
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>54</v>
@@ -9493,19 +9929,19 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="H47" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" ht="18.4" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1">
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>48</v>
@@ -9513,19 +9949,19 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="H48" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" ht="18.4" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="1">
         <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>46</v>
@@ -9533,19 +9969,19 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="H49" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" ht="18.4" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1">
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>61</v>
@@ -9553,22 +9989,22 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="H50" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" ht="18.4" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="1">
         <v>51</v>
       </c>
       <c r="D51">
         <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>59</v>
@@ -9576,22 +10012,22 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="H51" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" ht="18.4" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="1">
         <v>54</v>
       </c>
       <c r="D52">
         <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F52">
         <v>61</v>
@@ -9599,19 +10035,19 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="H52" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" ht="18.4" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="1">
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <v>50</v>
@@ -9619,19 +10055,19 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="H53" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" ht="18.4" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1">
         <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>56</v>
@@ -9639,19 +10075,19 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="H54" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" ht="18.4" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1">
         <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -9659,19 +10095,19 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="H55" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" ht="18.4" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="1">
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>51</v>
@@ -9679,22 +10115,22 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="H56" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" ht="18.4" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="1">
         <v>50</v>
       </c>
       <c r="D57">
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>60</v>
@@ -9702,19 +10138,19 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="H57" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" ht="18.4" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1">
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F58">
         <v>53</v>
@@ -9722,19 +10158,19 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="H58" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" ht="18.4" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="1">
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>51</v>
@@ -9742,21 +10178,21 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A10:B62">
     <sortCondition ref="A10:A62"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>